--- a/Dati wiki/nodes_meaning.xlsx
+++ b/Dati wiki/nodes_meaning.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\naomi\Documents\GitHub\sna-project-2022_cosmo_d-arrigo_esposito\Dati wiki\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{163E5193-8EDD-4386-AEAB-ED7166B0ABBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A735305-7874-49E0-9A83-6CE14681F628}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6876" yWindow="0" windowWidth="17268" windowHeight="8964" xr2:uid="{9D994D4D-D28E-4CBD-872E-9316C885F8DC}"/>
+    <workbookView xWindow="5772" yWindow="0" windowWidth="17268" windowHeight="8964" xr2:uid="{9D994D4D-D28E-4CBD-872E-9316C885F8DC}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="116">
   <si>
     <t>Tag</t>
   </si>
@@ -198,16 +198,210 @@
   </si>
   <si>
     <t>song slogan A promise is a statement which you make to a person in which you say that you will definitely do something or give them something.</t>
+  </si>
+  <si>
+    <t>fridayvibes</t>
+  </si>
+  <si>
+    <t>peoplenotprofit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">friday vibes day event positive have positive energy </t>
+  </si>
+  <si>
+    <t xml:space="preserve">increase people and not profits </t>
+  </si>
+  <si>
+    <t>berlin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">berlin is the capital and largest city of Germany by both area and population. Its 3.7 million inhabitants make it the European Union's most populous city, according to population within city limits. One of Germany's sixteen constituent states, Berlin is surrounded by the State of Brandenburg and contiguous with Potsdam, Brandenburg's capital. </t>
+  </si>
+  <si>
+    <t>actonclimate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">take action to do something to prevent climate change </t>
+  </si>
+  <si>
+    <t>covid19</t>
+  </si>
+  <si>
+    <t>Coronavirus disease 2019 (COVID-19) is a contagious disease caused by a virus, the severe acute respiratory syndrome coronavirus 2 (SARS-CoV-2). The first known case was identified in Wuhan, China, in December 2019. The disease quickly spread worldwide, resulting in the COVID-19 pandemic.</t>
+  </si>
+  <si>
+    <t>environment</t>
+  </si>
+  <si>
+    <t>Natural environment, all living and non-living things occurring naturally
+Biophysical environment, the physical and biological factors along with their chemical interactions that affect an organism or a group of organisms</t>
+  </si>
+  <si>
+    <t>india</t>
+  </si>
+  <si>
+    <t>India, officially the Republic of India (Hindi: Bhārat Gaṇarājya), is a country in South Asia. It is the seventh-largest country by area, the second-most populous country, and the most populous democracy in the world.</t>
+  </si>
+  <si>
+    <t>fightfor1point5</t>
+  </si>
+  <si>
+    <t>A little over 5 years ago world leaders made a commitment: to keep the temperature rise due to the climate crisis within 1.5 ºC, or at least well below 2 hectares C. By signing the Paris Agreement, the European States promised to implement policies to reduce greenhouse gas production by up to 40% from 1990 levels, despite the fact that this objective is not satisfactory, However, we are a long way from achieving it, so much so that many countries, with fewer means and less responsibility on the part of the EU, are working much harder to combat climate change.</t>
+  </si>
+  <si>
+    <t>greennewdeal</t>
+  </si>
+  <si>
+    <t>Green New Deal (GND) proposals call for public policy to address climate change along with achieving other social aims like job creation and reducing economic inequality. The name refers back to the New Deal, a set of social and economic reforms and public works projects undertaken by President Franklin D. Roosevelt in response to the Great Depression. The Green New Deal combines Roosevelt's economic approach with modern ideas such as renewable energy and resource efficiency.</t>
+  </si>
+  <si>
+    <t>carbon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carbon (from Latin: carbo "coal") is a chemical element with the symbol C and atomic number 6. It is nonmetallic and tetravalent—making four electrons available to form covalent chemical bonds. It belongs to group 14 of the periodic table. Carbon makes up only about 0.025 percent of Earth's crust. </t>
+  </si>
+  <si>
+    <t>nature</t>
+  </si>
+  <si>
+    <t>Nature, in the broadest sense, is the physical world or universe. "Nature" can refer to the phenomena of the physical world, and also to life in general. The study of nature is a large, if not the only, part of science. Although humans are part of nature, human activity is often understood as a separate category from other natural phenomena.The word nature is borrowed from the Old French nature and is derived from the Latin word natura, or "essential qualities, innate disposition", and in ancient times, literally meant "birth".</t>
+  </si>
+  <si>
+    <t>energytransition</t>
+  </si>
+  <si>
+    <t>The energy transition is the ongoing process of replacing fossil fuels with low carbon energy sources.  More generally, an energy transition is a significant structural change in an energy system regarding supply and consumption.</t>
+  </si>
+  <si>
+    <t>globalwarming</t>
+  </si>
+  <si>
+    <t>Contemporary climate change includes both global warming and its impacts on Earth's weather patterns. There have been previous periods of climate change, but the current changes are distinctly more rapid and not due to natural causes. Instead, they are caused by the emission of greenhouse gases, mostly carbon dioxide (CO2) and methane. Burning fossil fuels for energy use creates most of these emissions. Certain agricultural practices, industrial processes, and forest loss are additional sources. As their name suggests, these gases trap heat from sunlight near the earth’s surface, warming it over time.</t>
+  </si>
+  <si>
+    <t>cop25</t>
+  </si>
+  <si>
+    <t>The 2019 United Nations Climate Change Conference, also known as COP25, was the 25th United Nations Climate Change conference. It was held in Madrid, Spain, from 2 to 13 December 2019 under the presidency of the Chilean government.</t>
+  </si>
+  <si>
+    <t>solarenergy</t>
+  </si>
+  <si>
+    <t>Solar energy is radiant light and heat from the Sun that is harnessed using a range of technologies such as solar power to generate electricity, solar thermal energy (including solar water heating), and solar architecture.It is an essential source of renewable energy, and its technologies are broadly characterized as either passive solar or active solar depending on how they capture and distribute solar energy or convert it into solar power. Active solar techniques include the use of photovoltaic systems, concentrated solar power, and solar water heating to harness the energy.</t>
+  </si>
+  <si>
+    <t>renewableenergy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Renewable energy is energy that is collected from renewable resources that are naturally replenished on a human timescale. It includes sources such as sunlight, wind, rain, tides, waves, and geothermal heat. Although most renewable energy sources are sustainable, some are not. </t>
+  </si>
+  <si>
+    <t>cleanenergy</t>
+  </si>
+  <si>
+    <t>Energy is sustainable if it "meets the needs of the present without compromising the ability of future generations to meet their own needs".  Most definitions of sustainable energy include considerations of environmental aspects such as greenhouse gas emissions and social and economic aspects such as energy poverty</t>
+  </si>
+  <si>
+    <t>coronavirus</t>
+  </si>
+  <si>
+    <t>Coronaviruses are a group of related RNA viruses that cause diseases in mammals and birds. In humans and birds, they cause respiratory tract infections that can range from mild to lethal. Mild illnesses in humans include some cases of the common cold (which is also caused by other viruses, predominantly rhinoviruses), while more lethal varieties can cause SARS, MERS and COVID-19, which is causing an ongoing pandemic. In cows and pigs they cause diarrhea, while in mice they cause hepatitis and encephalomyelitis.</t>
+  </si>
+  <si>
+    <t>energy</t>
+  </si>
+  <si>
+    <t>In physics, energy is the quantitative property that is transferred to a body or to a physical system, recognizable in the performance of work and in the form of heat and light. Energy is a conserved quantity; the law of conservation of energy states that energy can be converted in form, but not created or destroyed. The unit of measurement in the International System of Units (SI) of energy is the joule, which is the energy transferred to an object by the work of moving it a distance of one metre against a force of one newton.</t>
+  </si>
+  <si>
+    <t>pollution</t>
+  </si>
+  <si>
+    <t>Pollution is the introduction of contaminants into the natural environment that cause adverse change. Pollution can take the form of any substance (solid, liquid, or gas) or energy (such as radioactivity, heat, sound, or light). Pollutants, the components of pollution, can be either foreign substances/energies or naturally occurring contaminants. Although environmental pollution can be caused by natural events, the word pollution generally implies that the contaminants have an anthropogenic source – that is, a source created by human activities.</t>
+  </si>
+  <si>
+    <t>hamburg</t>
+  </si>
+  <si>
+    <t>Hamburg locally also officially the Free and Hanseatic City of Hamburg (German: Freie und Hansestadt Hamburg; Low Saxon: Friee un Hansestadt Hamborg), is the second-largest city in Germany after Berlin, as well as the overall 7th largest city and largest non-capital city in the European Union with a population of over 1.84 million</t>
+  </si>
+  <si>
+    <t>science</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Science is a systematic enterprise that builds and organizes knowledge in the form of testable explanations and predictions about the universe.The earliest roots in the history of science can be traced to Ancient Egypt and Mesopotamia in around 3000 to 1200 BCE. Their contributions to mathematics, astronomy, and medicine entered and shaped Greek natural philosophy of classical antiquity, whereby formal attempts were made to provide explanations of events in the physical world based on natural causes. </t>
+  </si>
+  <si>
+    <t>vegan</t>
+  </si>
+  <si>
+    <t>Veganism is the practice of abstaining from the use of animal products, particularly in diet, and an associated philosophy that rejects the commodity status of animals. An individual who follows the diet or philosophy is known as a vegan. Distinctions may be made between several categories of veganism.</t>
+  </si>
+  <si>
+    <t>art</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Art is a diverse range of human activity, and resulting product, that involves creative or imaginative talent expressive of technical proficiency, beauty, emotional power, or conceptual ideas.There is no generally agreed definition of what constitutes art, and its interpretation has varied greatly throughout history and across cultures. </t>
+  </si>
+  <si>
+    <t>earth</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Earth is the third planet from the Sun and the only astronomical object known to harbor life. While large volumes of water can be found throughout the Solar System, only Earth sustains liquid surface water. About 71% of Earth's surface is made up of the ocean, dwarfing Earth's polar ice, lakes, and rivers. The remaining 29% of Earth's surface is land, consisting of continents and islands.</t>
+  </si>
+  <si>
+    <t>future</t>
+  </si>
+  <si>
+    <t>The future is the time after the past and present. Its arrival is considered inevitable due to the existence of time and the laws of physics. Due to the apparent nature of reality and the unavoidability of the future, everything that currently exists and will exist can be categorized as either permanent, meaning that it will exist forever, or temporary, meaning that it will end</t>
+  </si>
+  <si>
+    <t>wind</t>
+  </si>
+  <si>
+    <t>Wind is the natural movement of air or other gases relative to a planet's surface. Winds occur on a range of scales, from thunderstorm flows lasting tens of minutes, to local breezes generated by heating of land surfaces and lasting a few hours, to global winds resulting from the difference in absorption of solar energy between the climate zones on Earth.</t>
+  </si>
+  <si>
+    <t>Merkel</t>
+  </si>
+  <si>
+    <t>Angela Dorothea Merkel is a retired German politician and scientist who served as the chancellor of Germany from 2005 to 2021. A member of the Christian Democratic Union (CDU), she previously served as leader of the Opposition from 2002 to 2005 and as Leader of the Christian Democratic Union from 2000 to 2018.</t>
+  </si>
+  <si>
+    <t>fossilfuels</t>
+  </si>
+  <si>
+    <t>A fossil fuel is a hydrocarbon-containing material formed naturally in the earth's crust from the remains of dead plants and animals that is extracted and burned as a fuel. The main fossil fuels are coal, crude oil and natural gas. Fossil fuels may be burned to provide heat for use directly (such as for cooking or heating), to power engines (such as internal combustion engines in motor vehicles), or to generate electricity.</t>
+  </si>
+  <si>
+    <t>planet</t>
+  </si>
+  <si>
+    <t>A planet is a large, rounded astronomical body that is neither a star nor its remnant. The best available theory of planet formation is the nebular hypothesis, which posits that an interstellar cloud collapses out of a nebula to create a young protostar orbited by a protoplanetary disk. Planets grow in this disk by the gradual accumulation of material driven by gravity, a process called accretion.</t>
+  </si>
+  <si>
+    <t>canada</t>
+  </si>
+  <si>
+    <t>Canada is a country in North America. Its ten provinces and three territories extend from the Atlantic Ocean to the Pacific Ocean and northward into the Arctic Ocean, covering over 9.98 million square kilometres (3.85 million square miles), making it the world's second-largest country by total area. Its southern and western border with the United States, stretching 8,891 kilometres (5,525 mi), is the world's longest binational land border. Canada's capital is Ottawa, and its three largest metropolitan areas are Toronto, Montreal, and Vancouver.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -233,10 +427,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -552,10 +749,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06D0F849-2675-4C7B-9308-82AD6B3E9576}">
-  <dimension ref="A1:C27"/>
+  <dimension ref="A1:C58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView tabSelected="1" topLeftCell="B41" workbookViewId="0">
+      <selection activeCell="B58" sqref="B58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -783,6 +980,254 @@
         <v>53</v>
       </c>
     </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>54</v>
+      </c>
+      <c r="B28" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>55</v>
+      </c>
+      <c r="B29" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>58</v>
+      </c>
+      <c r="B30" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>60</v>
+      </c>
+      <c r="B31" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>62</v>
+      </c>
+      <c r="B32" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>64</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>66</v>
+      </c>
+      <c r="B34" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>68</v>
+      </c>
+      <c r="B35" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>70</v>
+      </c>
+      <c r="B36" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>72</v>
+      </c>
+      <c r="B37" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>74</v>
+      </c>
+      <c r="B38" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>76</v>
+      </c>
+      <c r="B39" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>78</v>
+      </c>
+      <c r="B40" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>80</v>
+      </c>
+      <c r="B41" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>82</v>
+      </c>
+      <c r="B42" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>84</v>
+      </c>
+      <c r="B43" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>86</v>
+      </c>
+      <c r="B44" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>88</v>
+      </c>
+      <c r="B45" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>90</v>
+      </c>
+      <c r="B46" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>92</v>
+      </c>
+      <c r="B47" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>94</v>
+      </c>
+      <c r="B48" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>96</v>
+      </c>
+      <c r="B49" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>98</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>100</v>
+      </c>
+      <c r="B51" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>102</v>
+      </c>
+      <c r="B52" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>104</v>
+      </c>
+      <c r="B53" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>106</v>
+      </c>
+      <c r="B54" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>108</v>
+      </c>
+      <c r="B55" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>110</v>
+      </c>
+      <c r="B56" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>112</v>
+      </c>
+      <c r="B57" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>114</v>
+      </c>
+      <c r="B58" t="s">
+        <v>115</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
